--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang3/01.TraBH/TBH040324_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang3/01.TraBH/TBH040324_AnhTuanNB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang3\01.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$89</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="99">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -102,76 +102,223 @@
     <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
   </si>
   <si>
-    <t>WP21110052S00490 / 0032000F3C</t>
-  </si>
-  <si>
-    <t>Khay sim bị kẹt</t>
-  </si>
-  <si>
-    <t>Xử lý lại khay sim</t>
-  </si>
-  <si>
-    <t>WP22050219S01744 / 00320046E3</t>
-  </si>
-  <si>
-    <t>WSP21060004S0153 / 00320004EC</t>
-  </si>
-  <si>
-    <t>Thiết bị chạy module sim CAT1, ID mới: 0032005993</t>
-  </si>
-  <si>
-    <t>Thay khay sim, nâng cấp FW MCU</t>
-  </si>
-  <si>
-    <t>Thay Main mới, nạp lại cấu hình</t>
-  </si>
-  <si>
-    <t>WP21110052S00787 / 0032000CD4</t>
-  </si>
-  <si>
-    <t>Sim, thẻ nhớ</t>
-  </si>
-  <si>
-    <t>WSP21060004S0195 / 003200065B</t>
-  </si>
-  <si>
-    <t>Sim bị biến dạng không lắp được vào khay sim</t>
-  </si>
-  <si>
-    <t>Thiết bị chạy mudule CAT1, ID mới: 00320059DE</t>
-  </si>
-  <si>
-    <t>Thiết bị không lên nguồn</t>
-  </si>
-  <si>
-    <t>Thay main nguồn, nâng cấp FW MCU</t>
-  </si>
-  <si>
-    <t>Sóng 4G kém</t>
-  </si>
-  <si>
-    <t>Thay Main module sim 4G, anten, nạp lại cấu hình</t>
-  </si>
-  <si>
-    <t>WSP21060008S0309 / 0032000AB1</t>
-  </si>
-  <si>
-    <t>Lỗi khay sim</t>
-  </si>
-  <si>
-    <t>Thay kháy sim, nâng cấp FW MCU</t>
-  </si>
-  <si>
-    <t>WSP21110069S00153 / 0032001109</t>
-  </si>
-  <si>
-    <t>Thiết bị không nhận module GPS</t>
-  </si>
-  <si>
-    <t>Xử lý lại dây kết nối module GPS</t>
-  </si>
-  <si>
-    <t>Hà Nội, ngày 01 tháng 02 năm 2024</t>
+    <t>Hà Nội, ngày 04 tháng 03 năm 2024</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Hết hạn DV</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>WP21110052S00284 / 0032000F8B</t>
+  </si>
+  <si>
+    <t>WP21120135S01807 / 0032002C61</t>
+  </si>
+  <si>
+    <t>WP21110052S00689 / 0032000FD3</t>
+  </si>
+  <si>
+    <t>ID mới: 0032005958</t>
+  </si>
+  <si>
+    <t>WP21110069S00615 / 0032001050</t>
+  </si>
+  <si>
+    <t>WP21110052S00657 / 0032000D0C</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>WP22050219S01847 / 00320040CF</t>
+  </si>
+  <si>
+    <t>Khách báo sim lúc nhận lúc không</t>
+  </si>
+  <si>
+    <t>ID mới: 005581052576676</t>
+  </si>
+  <si>
+    <t>HUB</t>
+  </si>
+  <si>
+    <t>VNSH01</t>
+  </si>
+  <si>
+    <t>WM21051100S1177 / 00BD000935</t>
+  </si>
+  <si>
+    <t>Ireader + dây kết nối</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module sim + thiết bị</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU, nâng cấp FW module sim + thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt sim, không check được I/O</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module sim + thiết bị, xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi motion</t>
+  </si>
+  <si>
+    <t>Thay motion, nâng cấp FW thiết bị</t>
+  </si>
+  <si>
+    <t>Cháy led báo chốt sim</t>
+  </si>
+  <si>
+    <t>Thay led mới</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW thiết bị</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>Hàn lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU, nâng cấp FW module + thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận Flash</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module sim</t>
+  </si>
+  <si>
+    <t>Khay sim bị bung</t>
+  </si>
+  <si>
+    <t>Thay khay sim mới</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Lỗi main không nhận thẻ nhớ</t>
+  </si>
+  <si>
+    <t>Thay main</t>
+  </si>
+  <si>
+    <t>Lỗi module sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Ireader lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW test lại thiết bị, đổi Ireader mới</t>
+  </si>
+  <si>
+    <t>Dây nguồn TG102LE</t>
+  </si>
+  <si>
+    <t>SL: 6</t>
+  </si>
+  <si>
+    <t>Dây nguồn VNSH02</t>
+  </si>
+  <si>
+    <t>SL: 1</t>
+  </si>
+  <si>
+    <t>Xử lý lại đầu cos, đổi 2 dây mới</t>
+  </si>
+  <si>
+    <t>Test lại dây bình thường</t>
+  </si>
+  <si>
+    <t>TG102LE-4G</t>
+  </si>
+  <si>
+    <t>005505051176024</t>
+  </si>
+  <si>
+    <t>006080056237998</t>
+  </si>
+  <si>
+    <t>005081051082452</t>
+  </si>
+  <si>
+    <t>005505051236315</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa chữa</t>
+  </si>
+  <si>
+    <t>Lỗi đầu cos</t>
+  </si>
+  <si>
+    <t>Dây nguồn bình thường</t>
+  </si>
+  <si>
+    <t>Giữ lại 1 thiết bị VNSH01 ID: 00BD00073A lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Lỗi module sim 4G</t>
+  </si>
+  <si>
+    <t>005505051195289</t>
+  </si>
+  <si>
+    <t>Thay module sim mới</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lỗi IC chuyển động</t>
+  </si>
+  <si>
+    <t>Thay ic chuyển động, nâng câp FW</t>
+  </si>
+  <si>
+    <t>Thay khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, xử lý lại khay sim, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt sim, lỗi IC chuyển động</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module sim + thiết bị, thay IC chuyển động</t>
+  </si>
+  <si>
+    <t>Thay IC chuyển động, nâng cấp FW thiết bị</t>
   </si>
 </sst>
 </file>
@@ -293,13 +440,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,9 +796,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -656,9 +806,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,8 +841,77 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -715,80 +931,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,15 +978,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>172980</xdr:colOff>
+      <xdr:colOff>363480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>265045</xdr:rowOff>
+      <xdr:rowOff>231915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>836545</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47216</xdr:rowOff>
+      <xdr:rowOff>14086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -844,8 +1009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="553980" y="265045"/>
-          <a:ext cx="2999261" cy="602149"/>
+          <a:off x="744480" y="231915"/>
+          <a:ext cx="3984890" cy="602149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,22 +1312,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -1170,443 +1335,1963 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="51" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="54" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="54" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="57" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
       <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
       <c r="L9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+    <row r="12" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="B12" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="69">
+        <v>862205051172056</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>2</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="69">
+        <v>862205051171967</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>3</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="69">
+        <v>861881051080266</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>4</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="69">
+        <v>862205051181040</v>
+      </c>
+      <c r="D15" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="E15" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>3</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>4</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="26"/>
+      <c r="G15" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+    <row r="16" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>5</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="26"/>
+      <c r="B16" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="69">
+        <v>862205051161935</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="24"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="26"/>
+      <c r="B17" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="69">
+        <v>862205051199299</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="24"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>7</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="25" t="s">
+      <c r="B18" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="69">
+        <v>861881054167557</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>8</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="69">
+        <v>862205051191676</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>9</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="69">
+        <v>861881051090414</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>10</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="69">
+        <v>861881051091438</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>11</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>12</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="69">
+        <v>861881053427333</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>13</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>14</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="69">
+        <v>862205051208645</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>15</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="69">
+        <v>861881051086610</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>16</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="69">
+        <v>862205051231480</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>17</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="69">
+        <v>861881051091032</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>18</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="40" t="s">
+      <c r="B29" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="69">
+        <v>862205051191346</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>19</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="69">
+        <v>861881051089382</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>20</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="69">
+        <v>861881054163820</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>21</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="69">
+        <v>862205051189118</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>22</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="69">
+        <v>861881051086792</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>23</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="69">
+        <v>862205051234088</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>24</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="69">
+        <v>861881051082601</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>25</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="69">
+        <v>862205051190819</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>26</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="69">
+        <v>862205051180935</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>27</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>28</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="69">
+        <v>862205051182881</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>29</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="69">
+        <v>861881051090133</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>30</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="69">
+        <v>862205051216879</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>31</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="69">
+        <v>861881052578102</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>32</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="69">
+        <v>862205051227777</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="67"/>
+      <c r="G43" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>33</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="69">
+        <v>862205051161364</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>34</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="69">
+        <v>862205051192278</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>35</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="69">
+        <v>862205051195057</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="67"/>
+      <c r="G46" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>36</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="69">
+        <v>862205051195958</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="67"/>
+      <c r="G47" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>37</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="69">
+        <v>862205051234385</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>38</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="69">
+        <v>861881051086875</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="67"/>
+      <c r="G49" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>39</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="69">
+        <v>861881051090554</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="67"/>
+      <c r="G50" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="24"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>40</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="69">
+        <v>861881054163457</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="67"/>
+      <c r="G51" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>41</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="69">
+        <v>862205051188052</v>
+      </c>
+      <c r="D52" s="67"/>
+      <c r="E52" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>42</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="69">
+        <v>862205051195370</v>
+      </c>
+      <c r="D53" s="67"/>
+      <c r="E53" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="67"/>
+      <c r="G53" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>43</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="67"/>
+      <c r="E54" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="67"/>
+      <c r="G54" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="24"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>44</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="69">
+        <v>862205051192286</v>
+      </c>
+      <c r="D55" s="67"/>
+      <c r="E55" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="67"/>
+      <c r="G55" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="24"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>45</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="67"/>
+      <c r="E56" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="67"/>
+      <c r="G56" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="24"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>46</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="67"/>
+      <c r="E57" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="67"/>
+      <c r="G57" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>47</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="67"/>
+      <c r="E58" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="24"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>48</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="67"/>
+      <c r="E59" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="67"/>
+      <c r="G59" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
         <v>49</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="B60" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="67"/>
+      <c r="G60" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="24"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>50</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="67"/>
+      <c r="E61" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="H61" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>51</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="67"/>
+      <c r="E62" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>52</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="69">
+        <v>861881053427838</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="24"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>53</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="69">
+        <v>861881051084631</v>
+      </c>
+      <c r="D64" s="67"/>
+      <c r="E64" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="67"/>
+      <c r="G64" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="24"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>54</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="69">
+        <v>862205051184945</v>
+      </c>
+      <c r="D65" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>55</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="69">
+        <v>861881051086867</v>
+      </c>
+      <c r="D66" s="67"/>
+      <c r="E66" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>56</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="69">
+        <v>862205051176115</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="67"/>
+      <c r="G67" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>57</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="69">
+        <v>862205051175810</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>58</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="69">
+        <v>862205051194357</v>
+      </c>
+      <c r="D69" s="67"/>
+      <c r="E69" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="67"/>
+      <c r="G69" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>59</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="69">
+        <v>861881051085497</v>
+      </c>
+      <c r="D70" s="67"/>
+      <c r="E70" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="67"/>
+      <c r="H70" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>60</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="69">
+        <v>861881054163382</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>61</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="69">
+        <v>2002202300026</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" s="24"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>62</v>
+      </c>
+      <c r="B73" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="69">
+        <v>2002202300015</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>63</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="69">
+        <v>2002202300019</v>
+      </c>
+      <c r="D74" s="67"/>
+      <c r="E74" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>64</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="69">
+        <v>2002202300017</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>65</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="69">
+        <v>2002202300022</v>
+      </c>
+      <c r="D76" s="67"/>
+      <c r="E76" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <v>66</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="67"/>
+      <c r="G77" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="24"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>68</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78" s="24"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>69</v>
+      </c>
+      <c r="B79" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="72"/>
+      <c r="B81" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+    </row>
+    <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="44" t="s">
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+    </row>
+    <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="43" t="s">
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-    </row>
-    <row r="68" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+    </row>
+    <row r="89" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="91" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
+    </row>
+    <row r="130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="B81:D81"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
@@ -1616,16 +3301,9 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G26:I26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="1" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>